--- a/data/clean/tableau/rel_diff_group_value.xlsx
+++ b/data/clean/tableau/rel_diff_group_value.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maurits/Documents/Ironhack/week_08/final_project/data/clean/tableau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7735796C-21EB-AB48-97D5-860FD0E7497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF4E42C-C258-5549-B71C-E4CEF31AA19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{FE4FCF68-CDAD-A54D-A051-41375A6AF6FF}"/>
+    <workbookView xWindow="2420" yWindow="5380" windowWidth="27640" windowHeight="16940" xr2:uid="{FE4FCF68-CDAD-A54D-A051-41375A6AF6FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FA4BFB-C104-6B4F-97B9-4EF6739DBF38}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,6 +657,69 @@
         <v>98</v>
       </c>
     </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B24">
+        <v>-6.8421052631578938E-2</v>
+      </c>
+      <c r="C24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B25">
+        <v>-5.4726368159203953E-2</v>
+      </c>
+      <c r="C25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B26">
+        <v>-5.5299539170506895E-2</v>
+      </c>
+      <c r="C26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B27">
+        <v>-5.3941908713692976E-2</v>
+      </c>
+      <c r="C27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B28">
+        <v>-3.5971223021582732E-2</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B29">
+        <v>-3.125E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
